--- a/AAII_Financials/Quarterly/ZOM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZOM_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>ZOM</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,56 +665,63 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -742,8 +749,14 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -771,8 +784,14 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,8 +819,14 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,37 +838,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>800</v>
+      </c>
+      <c r="F12" s="3">
         <v>1000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>1100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>7500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>6600</v>
-      </c>
-      <c r="H12" s="3">
-        <v>600</v>
-      </c>
-      <c r="I12" s="3">
-        <v>2500</v>
       </c>
       <c r="J12" s="3">
         <v>600</v>
       </c>
       <c r="K12" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L12" s="3">
+        <v>600</v>
+      </c>
+      <c r="M12" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +904,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -900,8 +939,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -915,22 +960,28 @@
         <v>200</v>
       </c>
       <c r="G15" s="3">
+        <v>200</v>
+      </c>
+      <c r="H15" s="3">
+        <v>200</v>
+      </c>
+      <c r="I15" s="3">
         <v>100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>100</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,37 +990,45 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F17" s="3">
         <v>2800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>11700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>8400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>4100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -977,28 +1036,34 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G18" s="3">
         <v>-2400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-11700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-8400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-4100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,8 +1075,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1028,19 +1095,25 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1048,28 +1121,34 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="G21" s="3">
         <v>-2200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-11500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-8400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-4100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-2100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1082,11 +1161,11 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>4</v>
@@ -1097,37 +1176,49 @@
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-11700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-8400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-4100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1155,8 +1246,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-11700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-8400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-4100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-11700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-8400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-4100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,8 +1491,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1376,48 +1515,60 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-11700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-8400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-4100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-11700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-8400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-4100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,37 +1705,45 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>500</v>
+      </c>
+      <c r="F41" s="3">
         <v>2500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>5800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>4300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>3100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,8 +1771,14 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1610,19 +1795,25 @@
         <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,66 +1841,84 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F45" s="3">
         <v>1500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F46" s="3">
         <v>4100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>7300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>3500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>3900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>5500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>4000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1737,37 +1946,49 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F48" s="3">
         <v>2000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>800</v>
-      </c>
-      <c r="I48" s="3">
-        <v>400</v>
-      </c>
-      <c r="J48" s="3">
-        <v>300</v>
       </c>
       <c r="K48" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>300</v>
+      </c>
+      <c r="M48" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1775,10 +1996,10 @@
         <v>500</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F49" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
@@ -1795,8 +2016,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,13 +2086,19 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -1868,22 +2107,28 @@
         <v>0</v>
       </c>
       <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>1400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2156,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F54" s="3">
         <v>6600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>9500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>5900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>6000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>6400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,8 +2225,10 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1975,57 +2236,69 @@
         <v>1600</v>
       </c>
       <c r="E57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G57" s="3">
         <v>1800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>7800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2400</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1700</v>
       </c>
       <c r="J57" s="3">
         <v>1300</v>
       </c>
       <c r="K57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M57" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2053,42 +2326,54 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F60" s="3">
         <v>1600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>7800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2400</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1700</v>
       </c>
       <c r="J60" s="3">
         <v>1300</v>
       </c>
       <c r="K60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2111,8 +2396,14 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2140,8 +2431,14 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2536,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F66" s="3">
         <v>1600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>7800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2400</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1700</v>
       </c>
       <c r="J66" s="3">
         <v>1300</v>
       </c>
       <c r="K66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2339,10 +2674,10 @@
         <v>12000</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2356,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2726,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-54500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-52100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-49200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-46400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-44000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-28000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-23900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-21900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-17800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-15600</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2866,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="F76" s="3">
         <v>-6900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-4300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-1900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>3700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>4700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>3600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-11700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-8400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-4100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +3030,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2650,22 +3047,28 @@
         <v>200</v>
       </c>
       <c r="G83" s="3">
+        <v>200</v>
+      </c>
+      <c r="H83" s="3">
+        <v>200</v>
+      </c>
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3236,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-8400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-2600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-3300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-3400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-2700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,13 +3290,15 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-100</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -2869,19 +3310,25 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3391,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-600</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,37 +3581,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="E100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>12000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>3000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>4800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>4000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,33 +3651,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-3300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>3500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-3800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZOM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZOM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>ZOM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,63 +665,67 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -755,8 +759,11 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -790,8 +797,11 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +835,11 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,43 +853,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E12" s="3">
         <v>600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>7500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>6600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +927,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,13 +965,16 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
         <v>200</v>
@@ -966,13 +989,13 @@
         <v>200</v>
       </c>
       <c r="I15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J15" s="3">
         <v>100</v>
       </c>
       <c r="K15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -980,8 +1003,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,43 +1018,47 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E17" s="3">
         <v>2300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>11700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1036,34 +1066,37 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-11700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-8400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,8 +1110,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1086,7 +1120,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1101,19 +1135,22 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1121,34 +1158,37 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-11500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-8400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1167,8 +1207,8 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
@@ -1182,43 +1222,49 @@
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-11700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-8400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1252,8 +1298,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-11700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-8400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-11700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-8400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,8 +1564,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1506,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1521,54 +1591,60 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-11700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-8400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-11700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-8400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,43 +1793,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E41" s="3">
         <v>1500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,13 +1867,16 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
@@ -1801,19 +1894,22 @@
         <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,78 +1943,87 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>800</v>
+      </c>
+      <c r="E45" s="3">
         <v>500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1100</v>
-      </c>
-      <c r="L45" s="3">
-        <v>800</v>
       </c>
       <c r="M45" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E46" s="3">
         <v>2200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,43 +2057,49 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E48" s="3">
         <v>2400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2002,7 +2113,7 @@
         <v>500</v>
       </c>
       <c r="G49" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
@@ -2022,8 +2133,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,16 +2209,19 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -2113,22 +2233,25 @@
         <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>1400</v>
       </c>
       <c r="K52" s="3">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="L52" s="3">
         <v>500</v>
       </c>
       <c r="M52" s="3">
+        <v>500</v>
+      </c>
+      <c r="N52" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2285,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>32800</v>
+      </c>
+      <c r="E54" s="3">
         <v>5000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,52 +2357,56 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E57" s="3">
         <v>1600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>800</v>
+      </c>
+      <c r="E58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2288,8 +2422,8 @@
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2297,8 +2431,11 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2332,52 +2469,58 @@
       <c r="M59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E61" s="3">
         <v>1300</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2402,8 +2545,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2437,8 +2583,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2697,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E66" s="3">
         <v>3100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2680,7 +2848,7 @@
         <v>12000</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2903,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-59800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-54500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-52100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-49200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-46400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-44000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-28000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-23900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-21900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-17800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-15600</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3055,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-10000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-9900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-6900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-11700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-8400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,13 +3230,14 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>200</v>
@@ -3053,13 +3252,13 @@
         <v>200</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3067,8 +3266,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3456,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-8400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,43 +3512,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3624,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>1000</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-600</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,43 +3830,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E100" s="3">
         <v>2200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>12000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,39 +3906,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E102" s="3">
         <v>1000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZOM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZOM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>ZOM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,67 +665,71 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -762,8 +766,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -800,8 +807,11 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +848,11 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,46 +867,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E12" s="3">
         <v>3900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>7500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>6600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +947,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,8 +988,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -977,7 +1000,7 @@
         <v>100</v>
       </c>
       <c r="E15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3">
         <v>200</v>
@@ -992,13 +1015,13 @@
         <v>200</v>
       </c>
       <c r="J15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K15" s="3">
         <v>100</v>
       </c>
       <c r="L15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1006,8 +1029,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,46 +1045,50 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E17" s="3">
         <v>5300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1066,37 +1096,40 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-11700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-8400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,8 +1144,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1120,11 +1154,11 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1138,19 +1172,22 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1158,37 +1195,40 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-11500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-8400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-4100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1210,8 +1250,8 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
@@ -1225,46 +1265,52 @@
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-11700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-8400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1301,8 +1347,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1388,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-11700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-8400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-11700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-8400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1552,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,8 +1634,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1576,11 +1646,11 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1594,57 +1664,63 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-11700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-8400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1757,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-11700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-8400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,46 +1880,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E41" s="3">
         <v>29100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,16 +1960,19 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
-      </c>
-      <c r="E43" s="3">
-        <v>100</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
@@ -1897,19 +1990,22 @@
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
       <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,84 +2042,93 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>900</v>
+      </c>
+      <c r="E45" s="3">
         <v>800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1100</v>
-      </c>
-      <c r="M45" s="3">
-        <v>800</v>
       </c>
       <c r="N45" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>53100</v>
+      </c>
+      <c r="E46" s="3">
         <v>30100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,51 +2165,57 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E48" s="3">
         <v>2200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E49" s="3">
         <v>500</v>
@@ -2116,7 +2227,7 @@
         <v>500</v>
       </c>
       <c r="H49" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I49" s="3">
         <v>0</v>
@@ -2136,8 +2247,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,19 +2329,22 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>1000</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -2236,22 +2356,25 @@
         <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="K52" s="3">
         <v>1400</v>
       </c>
       <c r="L52" s="3">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="M52" s="3">
         <v>500</v>
       </c>
       <c r="N52" s="3">
+        <v>500</v>
+      </c>
+      <c r="O52" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2411,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>56600</v>
+      </c>
+      <c r="E54" s="3">
         <v>32800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,46 +2488,50 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E57" s="3">
         <v>1200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2405,11 +2539,11 @@
         <v>800</v>
       </c>
       <c r="E58" s="3">
+        <v>800</v>
+      </c>
+      <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2425,8 +2559,8 @@
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2434,8 +2568,11 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2472,46 +2609,52 @@
       <c r="N59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E60" s="3">
         <v>2000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2519,11 +2662,11 @@
         <v>1200</v>
       </c>
       <c r="E61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F61" s="3">
         <v>1300</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2548,8 +2691,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2586,8 +2732,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,8 +2855,11 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2709,37 +2867,40 @@
         <v>3200</v>
       </c>
       <c r="E66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F66" s="3">
         <v>3100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2851,7 +3019,7 @@
         <v>12000</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3077,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-64800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-59800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-54500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-52100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-49200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-46400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-44000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-28000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-23900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-21900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-17800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-15600</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3241,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E76" s="3">
         <v>17600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-10000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-9900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-6900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3323,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-11700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-8400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3429,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3240,7 +3439,7 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
@@ -3255,13 +3454,13 @@
         <v>200</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3269,8 +3468,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,8 +3673,11 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3468,37 +3685,40 @@
         <v>-5700</v>
       </c>
       <c r="E89" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-8400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3733,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3524,35 +3745,38 @@
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,8 +3854,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3636,37 +3866,40 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>1000</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-600</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,46 +4076,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E100" s="3">
         <v>33300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>12000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,42 +4158,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E102" s="3">
         <v>27600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZOM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZOM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>ZOM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,71 +665,74 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -769,8 +772,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -810,8 +816,11 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,49 +880,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>800</v>
+      </c>
+      <c r="E12" s="3">
         <v>2700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>7500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>6600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -991,8 +1010,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1003,7 +1025,7 @@
         <v>100</v>
       </c>
       <c r="F15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G15" s="3">
         <v>200</v>
@@ -1018,13 +1040,13 @@
         <v>200</v>
       </c>
       <c r="K15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L15" s="3">
         <v>100</v>
       </c>
       <c r="M15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1032,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,49 +1071,53 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E17" s="3">
         <v>5000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1096,40 +1125,43 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-5300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-11700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-8400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,8 +1177,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1157,11 +1190,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1175,19 +1208,22 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1195,40 +1231,43 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-5200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-11500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-8400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-4100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1253,8 +1292,8 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>4</v>
@@ -1268,49 +1307,55 @@
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-11700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1350,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-11700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-11700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,8 +1703,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1649,11 +1718,11 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1667,60 +1736,66 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-11700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-11700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,49 +1966,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E41" s="3">
         <v>52000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>29100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,8 +2052,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1972,10 +2064,10 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
-      </c>
-      <c r="F43" s="3">
-        <v>100</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
@@ -1993,19 +2085,22 @@
         <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,90 +2140,99 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>700</v>
+      </c>
+      <c r="E45" s="3">
         <v>900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1100</v>
-      </c>
-      <c r="N45" s="3">
-        <v>800</v>
       </c>
       <c r="O45" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>62900</v>
+      </c>
+      <c r="E46" s="3">
         <v>53100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>30100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2168,49 +2272,55 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E48" s="3">
         <v>2100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2218,7 +2328,7 @@
         <v>400</v>
       </c>
       <c r="E49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F49" s="3">
         <v>500</v>
@@ -2230,7 +2340,7 @@
         <v>500</v>
       </c>
       <c r="I49" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
@@ -2250,8 +2360,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,22 +2448,25 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>1000</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
+      <c r="E52" s="3">
+        <v>1000</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -2359,22 +2478,25 @@
         <v>0</v>
       </c>
       <c r="K52" s="3">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="L52" s="3">
         <v>1400</v>
       </c>
       <c r="M52" s="3">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="N52" s="3">
         <v>500</v>
       </c>
       <c r="O52" s="3">
+        <v>500</v>
+      </c>
+      <c r="P52" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>66100</v>
+      </c>
+      <c r="E54" s="3">
         <v>56600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>32800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,64 +2618,68 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
         <v>1300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="E58" s="3">
         <v>800</v>
       </c>
       <c r="F58" s="3">
+        <v>800</v>
+      </c>
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2562,8 +2695,8 @@
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -2571,8 +2704,11 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2612,64 +2748,70 @@
       <c r="O59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E61" s="3">
         <v>1200</v>
       </c>
       <c r="F61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G61" s="3">
         <v>1300</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2694,8 +2836,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2735,8 +2880,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="E66" s="3">
         <v>3200</v>
       </c>
       <c r="F66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G66" s="3">
         <v>3100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3022,7 +3189,7 @@
         <v>12000</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-68500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-64800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-59800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-54500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-52100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-49200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-46400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-44000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-28000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-23900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-21900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-17800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-15600</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>51100</v>
+      </c>
+      <c r="E76" s="3">
         <v>41400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>17600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-10000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-9900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-6900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-11700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3442,7 +3640,7 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
@@ -3457,13 +3655,13 @@
         <v>200</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -3471,8 +3669,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-5700</v>
+        <v>-2700</v>
       </c>
       <c r="E89" s="3">
         <v>-5700</v>
       </c>
       <c r="F89" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="G89" s="3">
         <v>-2200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-8400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,13 +3953,14 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>4</v>
@@ -3748,35 +3968,38 @@
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,8 +4083,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3869,37 +4098,40 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>1000</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-600</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,49 +4321,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E100" s="3">
         <v>28600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>33300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>12000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,45 +4409,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E102" s="3">
         <v>22900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>27600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZOM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZOM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>ZOM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,78 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,13 +779,16 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>0</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>4</v>
@@ -819,8 +826,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,52 +894,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>400</v>
+      </c>
+      <c r="E12" s="3">
         <v>800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>6600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,13 +986,16 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1013,13 +1033,16 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>100</v>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
@@ -1028,7 +1051,7 @@
         <v>100</v>
       </c>
       <c r="G15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H15" s="3">
         <v>200</v>
@@ -1043,13 +1066,13 @@
         <v>200</v>
       </c>
       <c r="L15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M15" s="3">
         <v>100</v>
       </c>
       <c r="N15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,52 +1098,56 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E17" s="3">
         <v>4100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,43 +1155,46 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-5000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-11700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1193,11 +1227,11 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1211,19 +1245,22 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,43 +1268,46 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-4900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-5200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-11500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-8400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-4100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1295,8 +1335,8 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
@@ -1310,52 +1350,58 @@
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-11700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-11700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-8400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-11700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-8400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1721,11 +1791,11 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1739,63 +1809,69 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-11700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-11700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2053,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>276600</v>
+      </c>
+      <c r="E41" s="3">
         <v>62000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>52000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>29100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,22 +2145,25 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
       </c>
       <c r="F43" s="3">
+        <v>100</v>
+      </c>
+      <c r="G43" s="3">
         <v>200</v>
-      </c>
-      <c r="G43" s="3">
-        <v>100</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
@@ -2088,42 +2181,45 @@
         <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2143,96 +2239,105 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E45" s="3">
         <v>700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1100</v>
-      </c>
-      <c r="O45" s="3">
-        <v>800</v>
       </c>
       <c r="P45" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>278500</v>
+      </c>
+      <c r="E46" s="3">
         <v>62900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>53100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>30100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,63 +2380,69 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E48" s="3">
         <v>1900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E49" s="3">
         <v>400</v>
       </c>
       <c r="F49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G49" s="3">
         <v>500</v>
@@ -2343,7 +2454,7 @@
         <v>500</v>
       </c>
       <c r="J49" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,25 +2568,28 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
         <v>1000</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
+      <c r="F52" s="3">
+        <v>1000</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -2481,22 +2601,25 @@
         <v>0</v>
       </c>
       <c r="L52" s="3">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="M52" s="3">
         <v>1400</v>
       </c>
       <c r="N52" s="3">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="O52" s="3">
         <v>500</v>
       </c>
       <c r="P52" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q52" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>280500</v>
+      </c>
+      <c r="E54" s="3">
         <v>66100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>56600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>32800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,57 +2749,61 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="E57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="E58" s="3">
         <v>800</v>
@@ -2678,11 +2812,11 @@
         <v>800</v>
       </c>
       <c r="G58" s="3">
+        <v>800</v>
+      </c>
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2698,8 +2832,8 @@
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -2707,8 +2841,11 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2751,8 +2888,11 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2760,61 +2900,64 @@
         <v>2000</v>
       </c>
       <c r="E60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F60" s="3">
         <v>2100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1100</v>
-      </c>
-      <c r="E61" s="3">
-        <v>1200</v>
       </c>
       <c r="F61" s="3">
         <v>1200</v>
       </c>
       <c r="G61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H61" s="3">
         <v>1300</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2839,8 +2982,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E66" s="3">
         <v>3100</v>
-      </c>
-      <c r="E66" s="3">
-        <v>3200</v>
       </c>
       <c r="F66" s="3">
         <v>3200</v>
       </c>
       <c r="G66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H66" s="3">
         <v>3100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,13 +3330,16 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
         <v>12000</v>
@@ -3192,7 +3360,7 @@
         <v>12000</v>
       </c>
       <c r="K70" s="3">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="L70" s="3">
         <v>0</v>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-105000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-68500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-64800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-59800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-54500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-52100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-49200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-46400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-44000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-28000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-23900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-21900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-17800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-15600</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>277500</v>
+      </c>
+      <c r="E76" s="3">
         <v>51100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>41400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>17600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-10000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-9900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-6900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-11700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3643,7 +3842,7 @@
         <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>200</v>
@@ -3658,13 +3857,13 @@
         <v>200</v>
       </c>
       <c r="L83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M83" s="3">
         <v>100</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2700</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-5700</v>
       </c>
       <c r="F89" s="3">
         <v>-5700</v>
       </c>
       <c r="G89" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="H89" s="3">
         <v>-2200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-8400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,16 +4174,17 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>4</v>
@@ -3971,35 +4192,38 @@
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4313,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4101,37 +4331,40 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>1000</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-600</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4567,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>217300</v>
+      </c>
+      <c r="E100" s="3">
         <v>12600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>28600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>33300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>12000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4661,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>214600</v>
+      </c>
+      <c r="E102" s="3">
         <v>10000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>22900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>27600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZOM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZOM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>ZOM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,82 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,16 +786,19 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
+      <c r="E9" s="3">
+        <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
@@ -829,16 +836,19 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
+      <c r="E10" s="3">
+        <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,55 +908,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>300</v>
+      </c>
+      <c r="E12" s="3">
         <v>400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>6600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,16 +1006,19 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1036,16 +1056,19 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="3">
-        <v>100</v>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F15" s="3">
         <v>100</v>
@@ -1054,7 +1077,7 @@
         <v>100</v>
       </c>
       <c r="H15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I15" s="3">
         <v>200</v>
@@ -1069,13 +1092,13 @@
         <v>200</v>
       </c>
       <c r="M15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N15" s="3">
         <v>100</v>
       </c>
       <c r="O15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,55 +1125,59 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E17" s="3">
         <v>3900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,46 +1185,49 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-4100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-11700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1221,7 +1255,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1230,11 +1264,11 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1248,19 +1282,22 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1268,46 +1305,49 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-4100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-11500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-8400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1338,8 +1378,8 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
@@ -1353,55 +1393,61 @@
       <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-11700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-8400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1493,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-11700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-8400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-11700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-8400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1785,7 +1855,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1794,11 +1864,11 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1812,66 +1882,72 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-11700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-11700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2140,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>276200</v>
+      </c>
+      <c r="E41" s="3">
         <v>276600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>62000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>52000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>29100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,25 +2238,28 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
-      </c>
-      <c r="E43" s="3">
-        <v>100</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
       </c>
       <c r="G43" s="3">
+        <v>100</v>
+      </c>
+      <c r="H43" s="3">
         <v>200</v>
-      </c>
-      <c r="H43" s="3">
-        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
@@ -2184,28 +2277,31 @@
         <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
       <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>800</v>
+      </c>
+      <c r="E44" s="3">
         <v>300</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2221,8 +2317,8 @@
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -2242,102 +2338,111 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
         <v>1400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1100</v>
-      </c>
-      <c r="P45" s="3">
-        <v>800</v>
       </c>
       <c r="Q45" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>277500</v>
+      </c>
+      <c r="E46" s="3">
         <v>278500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>62900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>53100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>30100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,69 +2488,75 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E48" s="3">
         <v>1600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>400</v>
+      </c>
+      <c r="E49" s="3">
         <v>300</v>
-      </c>
-      <c r="E49" s="3">
-        <v>400</v>
       </c>
       <c r="F49" s="3">
         <v>400</v>
       </c>
       <c r="G49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H49" s="3">
         <v>500</v>
@@ -2457,7 +2568,7 @@
         <v>500</v>
       </c>
       <c r="K49" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,28 +2688,31 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E52" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
         <v>1000</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
+      <c r="G52" s="3">
+        <v>1000</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -2604,22 +2724,25 @@
         <v>0</v>
       </c>
       <c r="M52" s="3">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="N52" s="3">
         <v>1400</v>
       </c>
       <c r="O52" s="3">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="P52" s="3">
         <v>500</v>
       </c>
       <c r="Q52" s="3">
+        <v>500</v>
+      </c>
+      <c r="R52" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>280400</v>
+      </c>
+      <c r="E54" s="3">
         <v>280500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>66100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>56600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>32800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,60 +2880,64 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E57" s="3">
         <v>1100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="E58" s="3">
         <v>800</v>
@@ -2815,11 +2949,11 @@
         <v>800</v>
       </c>
       <c r="H58" s="3">
+        <v>800</v>
+      </c>
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2835,8 +2969,8 @@
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -2844,8 +2978,11 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2891,76 +3028,82 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2000</v>
+        <v>3400</v>
       </c>
       <c r="E60" s="3">
         <v>2000</v>
       </c>
       <c r="F60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G60" s="3">
         <v>2100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>900</v>
+      </c>
+      <c r="E61" s="3">
         <v>1000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1100</v>
-      </c>
-      <c r="F61" s="3">
-        <v>1200</v>
       </c>
       <c r="G61" s="3">
         <v>1200</v>
       </c>
       <c r="H61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I61" s="3">
         <v>1300</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2985,8 +3128,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E66" s="3">
         <v>2900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3100</v>
-      </c>
-      <c r="F66" s="3">
-        <v>3200</v>
       </c>
       <c r="G66" s="3">
         <v>3200</v>
       </c>
       <c r="H66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I66" s="3">
         <v>3100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3342,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
         <v>12000</v>
@@ -3363,7 +3531,7 @@
         <v>12000</v>
       </c>
       <c r="L70" s="3">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="M70" s="3">
         <v>0</v>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-109800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-105000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-68500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-64800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-59800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-54500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-52100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-49200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-46400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-44000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-28000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-23900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-21900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-17800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-15600</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>276100</v>
+      </c>
+      <c r="E76" s="3">
         <v>277500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>51100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>41400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>17600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-10000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-9900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-6900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-11700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3845,7 +4044,7 @@
         <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>200</v>
@@ -3860,13 +4059,13 @@
         <v>200</v>
       </c>
       <c r="M83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N83" s="3">
         <v>100</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2700</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-5700</v>
       </c>
       <c r="G89" s="3">
         <v>-5700</v>
       </c>
       <c r="H89" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="I89" s="3">
         <v>-2200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-8400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4186,8 +4407,8 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
@@ -4195,35 +4416,38 @@
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,13 +4543,16 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4334,37 +4564,40 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>1000</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-600</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +4813,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E100" s="3">
         <v>217300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>12600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>28600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>33300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>12000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +4913,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E102" s="3">
         <v>214600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>10000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>22900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>27600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZOM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZOM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>ZOM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,86 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -789,8 +793,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -800,8 +807,8 @@
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
+      <c r="F9" s="3">
+        <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
@@ -839,8 +846,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,8 +860,8 @@
       <c r="E10" s="3">
         <v>0</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
+      <c r="F10" s="3">
+        <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
@@ -889,8 +899,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -918,49 +932,52 @@
         <v>300</v>
       </c>
       <c r="E12" s="3">
+        <v>300</v>
+      </c>
+      <c r="F12" s="3">
         <v>400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>6600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,19 +1026,22 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-500</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1070,8 +1093,8 @@
       <c r="E15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="3">
-        <v>100</v>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G15" s="3">
         <v>100</v>
@@ -1080,7 +1103,7 @@
         <v>100</v>
       </c>
       <c r="I15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J15" s="3">
         <v>200</v>
@@ -1095,13 +1118,13 @@
         <v>200</v>
       </c>
       <c r="N15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O15" s="3">
         <v>100</v>
       </c>
       <c r="P15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,58 +1152,62 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E17" s="3">
         <v>4800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1185,49 +1215,52 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-11700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-8400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1279,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1255,11 +1289,11 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1267,11 +1301,11 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1285,19 +1319,22 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1305,49 +1342,52 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-4900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-11500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-8400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1381,8 +1421,8 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>4</v>
@@ -1396,58 +1436,64 @@
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-11700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-8400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,8 +1542,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-11700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-11700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-8400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1913,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1855,11 +1925,11 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1867,11 +1937,11 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1885,69 +1955,75 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-11700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-11700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2227,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>271400</v>
+      </c>
+      <c r="E41" s="3">
         <v>276200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>276600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>62000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>52000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>29100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,8 +2331,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2250,19 +2343,19 @@
         <v>300</v>
       </c>
       <c r="E43" s="3">
+        <v>300</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
-      </c>
-      <c r="F43" s="3">
-        <v>100</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
       </c>
       <c r="H43" s="3">
+        <v>100</v>
+      </c>
+      <c r="I43" s="3">
         <v>200</v>
-      </c>
-      <c r="I43" s="3">
-        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
@@ -2280,31 +2373,34 @@
         <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
       <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E44" s="3">
         <v>800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>300</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2320,8 +2416,8 @@
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2341,108 +2437,117 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>800</v>
       </c>
       <c r="R45" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>274700</v>
+      </c>
+      <c r="E46" s="3">
         <v>277500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>278500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>62900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>53100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>30100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,75 +2596,81 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E48" s="3">
         <v>1400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>500</v>
+      </c>
+      <c r="E49" s="3">
         <v>400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>300</v>
-      </c>
-      <c r="F49" s="3">
-        <v>400</v>
       </c>
       <c r="G49" s="3">
         <v>400</v>
       </c>
       <c r="H49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I49" s="3">
         <v>500</v>
@@ -2571,7 +2682,7 @@
         <v>500</v>
       </c>
       <c r="L49" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,31 +2808,34 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>200</v>
+      </c>
+      <c r="E52" s="3">
         <v>1100</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
       <c r="F52" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>1000</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
+      <c r="H52" s="3">
+        <v>1000</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2727,22 +2847,25 @@
         <v>0</v>
       </c>
       <c r="N52" s="3">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="O52" s="3">
         <v>1400</v>
       </c>
       <c r="P52" s="3">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="Q52" s="3">
         <v>500</v>
       </c>
       <c r="R52" s="3">
+        <v>500</v>
+      </c>
+      <c r="S52" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>277500</v>
+      </c>
+      <c r="E54" s="3">
         <v>280400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>280500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>66100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>56600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>32800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,66 +3011,70 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E57" s="3">
         <v>3100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>400</v>
+      </c>
+      <c r="E58" s="3">
         <v>300</v>
-      </c>
-      <c r="E58" s="3">
-        <v>800</v>
       </c>
       <c r="F58" s="3">
         <v>800</v>
@@ -2952,11 +3086,11 @@
         <v>800</v>
       </c>
       <c r="I58" s="3">
+        <v>800</v>
+      </c>
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2972,8 +3106,8 @@
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -2981,8 +3115,11 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3031,82 +3168,88 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E60" s="3">
         <v>3400</v>
-      </c>
-      <c r="E60" s="3">
-        <v>2000</v>
       </c>
       <c r="F60" s="3">
         <v>2000</v>
       </c>
       <c r="G60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H60" s="3">
         <v>2100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E61" s="3">
         <v>900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1100</v>
-      </c>
-      <c r="G61" s="3">
-        <v>1200</v>
       </c>
       <c r="H61" s="3">
         <v>1200</v>
       </c>
       <c r="I61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J61" s="3">
         <v>1300</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -3131,8 +3274,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3181,8 +3327,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E66" s="3">
         <v>4300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3100</v>
-      </c>
-      <c r="G66" s="3">
-        <v>3200</v>
       </c>
       <c r="H66" s="3">
         <v>3200</v>
       </c>
       <c r="I66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J66" s="3">
         <v>3100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3513,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
         <v>12000</v>
@@ -3534,7 +3702,7 @@
         <v>12000</v>
       </c>
       <c r="M70" s="3">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="N70" s="3">
         <v>0</v>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-116100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-109800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-105000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-68500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-64800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-59800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-54500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-52100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-49200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-46400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-44000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-28000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-23900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-21900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-17800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-15600</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>271600</v>
+      </c>
+      <c r="E76" s="3">
         <v>276100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>277500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>51100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>41400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>17600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-10000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-9900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-6900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-4300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-11700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4047,7 +4246,7 @@
         <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>200</v>
@@ -4062,13 +4261,13 @@
         <v>200</v>
       </c>
       <c r="N83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O83" s="3">
         <v>100</v>
       </c>
       <c r="P83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4076,8 +4275,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2700</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-5700</v>
       </c>
       <c r="H89" s="3">
         <v>-5700</v>
       </c>
       <c r="I89" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="J89" s="3">
         <v>-2200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-8400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,13 +4616,14 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4410,8 +4631,8 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
@@ -4419,35 +4640,38 @@
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,17 +4773,20 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -4567,37 +4797,40 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>1000</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-600</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5059,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>1500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>217300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>12600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>28600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>33300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>12000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,54 +5165,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>214600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>10000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>22900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>27600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZOM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZOM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>ZOM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,91 +665,94 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>4100</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -760,14 +763,14 @@
       <c r="G8" s="3">
         <v>0</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -796,13 +799,16 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -810,8 +816,8 @@
       <c r="F9" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
+      <c r="G9" s="3">
+        <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
@@ -849,13 +855,16 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>3100</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -863,8 +872,8 @@
       <c r="F10" s="3">
         <v>0</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
+      <c r="G10" s="3">
+        <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
@@ -902,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E12" s="3">
         <v>300</v>
       </c>
       <c r="F12" s="3">
+        <v>300</v>
+      </c>
+      <c r="G12" s="3">
         <v>400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>7500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>6600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1038,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-500</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1082,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1096,8 +1118,8 @@
       <c r="F15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="3">
-        <v>100</v>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H15" s="3">
         <v>100</v>
@@ -1106,7 +1128,7 @@
         <v>100</v>
       </c>
       <c r="J15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K15" s="3">
         <v>200</v>
@@ -1121,13 +1143,13 @@
         <v>200</v>
       </c>
       <c r="O15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P15" s="3">
         <v>100</v>
       </c>
       <c r="Q15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1135,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E17" s="3">
         <v>6400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-5700</v>
       </c>
       <c r="E18" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-4800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="R18" s="3">
         <v>-4100</v>
       </c>
-      <c r="H18" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-5300</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-11700</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-8400</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,35 +1312,36 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1322,72 +1355,78 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-4800</v>
       </c>
       <c r="E21" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-4600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="O21" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="P21" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="R21" s="3">
         <v>-4100</v>
       </c>
-      <c r="H21" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-11500</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-8400</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1424,8 +1463,8 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>4</v>
@@ -1439,66 +1478,72 @@
       <c r="S22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-11700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-2300</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1545,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-6300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-11700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-4100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-6300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-11700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-8400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-4100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,35 +1982,38 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -1958,72 +2027,78 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-6300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-11700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-4100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-6300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-11700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-4100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>195000</v>
+      </c>
+      <c r="E41" s="3">
         <v>271400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>276200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>276600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>62000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>52000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>29100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,31 +2423,34 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E43" s="3">
         <v>300</v>
       </c>
       <c r="F43" s="3">
+        <v>300</v>
+      </c>
+      <c r="G43" s="3">
         <v>200</v>
-      </c>
-      <c r="G43" s="3">
-        <v>100</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
       </c>
       <c r="I43" s="3">
+        <v>100</v>
+      </c>
+      <c r="J43" s="3">
         <v>200</v>
-      </c>
-      <c r="J43" s="3">
-        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
@@ -2376,34 +2468,37 @@
         <v>100</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
       <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>100</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E44" s="3">
         <v>1400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>300</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2419,8 +2514,8 @@
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2440,114 +2535,123 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E45" s="3">
         <v>1600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1100</v>
-      </c>
-      <c r="R45" s="3">
-        <v>800</v>
       </c>
       <c r="S45" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200400</v>
+      </c>
+      <c r="E46" s="3">
         <v>274700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>277500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>278500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>62900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>53100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>30100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,81 +2703,87 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E48" s="3">
         <v>2100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>76800</v>
+      </c>
+      <c r="E49" s="3">
         <v>500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>300</v>
-      </c>
-      <c r="G49" s="3">
-        <v>400</v>
       </c>
       <c r="H49" s="3">
         <v>400</v>
       </c>
       <c r="I49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J49" s="3">
         <v>500</v>
@@ -2685,7 +2795,7 @@
         <v>500</v>
       </c>
       <c r="M49" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2705,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,34 +2927,37 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>700</v>
+      </c>
+      <c r="E52" s="3">
         <v>200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1100</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
       <c r="G52" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
         <v>1000</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
+      <c r="I52" s="3">
+        <v>1000</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2850,22 +2969,25 @@
         <v>0</v>
       </c>
       <c r="O52" s="3">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="P52" s="3">
         <v>1400</v>
       </c>
       <c r="Q52" s="3">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="R52" s="3">
         <v>500</v>
       </c>
       <c r="S52" s="3">
+        <v>500</v>
+      </c>
+      <c r="T52" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>280400</v>
+      </c>
+      <c r="E54" s="3">
         <v>277500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>280400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>280500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>66100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>56600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>32800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,61 +3141,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E57" s="3">
         <v>4500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3074,10 +3207,10 @@
         <v>400</v>
       </c>
       <c r="E58" s="3">
+        <v>400</v>
+      </c>
+      <c r="F58" s="3">
         <v>300</v>
-      </c>
-      <c r="F58" s="3">
-        <v>800</v>
       </c>
       <c r="G58" s="3">
         <v>800</v>
@@ -3089,11 +3222,11 @@
         <v>800</v>
       </c>
       <c r="J58" s="3">
+        <v>800</v>
+      </c>
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3109,8 +3242,8 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3118,31 +3251,34 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
+        <v>700</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -3171,88 +3307,94 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E60" s="3">
         <v>4900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3400</v>
-      </c>
-      <c r="F60" s="3">
-        <v>2000</v>
       </c>
       <c r="G60" s="3">
         <v>2000</v>
       </c>
       <c r="H60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I60" s="3">
         <v>2100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1100</v>
-      </c>
-      <c r="H61" s="3">
-        <v>1200</v>
       </c>
       <c r="I61" s="3">
         <v>1200</v>
       </c>
       <c r="J61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K61" s="3">
         <v>1300</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3277,31 +3419,34 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>4200</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -3330,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E66" s="3">
         <v>5900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3100</v>
-      </c>
-      <c r="H66" s="3">
-        <v>3200</v>
       </c>
       <c r="I66" s="3">
         <v>3200</v>
       </c>
       <c r="J66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K66" s="3">
         <v>3100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3684,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
         <v>12000</v>
@@ -3705,7 +3872,7 @@
         <v>12000</v>
       </c>
       <c r="N70" s="3">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="O70" s="3">
         <v>0</v>
@@ -3722,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-119400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-116100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-109800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-105000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-68500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-64800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-59800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-54500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-52100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-49200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-46400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-44000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-28000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-23900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-21900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-17800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-15600</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>270900</v>
+      </c>
+      <c r="E76" s="3">
         <v>271600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>276100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>277500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>51100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>41400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>17600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-10000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-9900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-6900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-4300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-6300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-11700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-4100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,13 +4422,14 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
@@ -4249,7 +4447,7 @@
         <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>200</v>
@@ -4264,13 +4462,13 @@
         <v>200</v>
       </c>
       <c r="O83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P83" s="3">
         <v>100</v>
       </c>
       <c r="Q83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -4278,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2700</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-5700</v>
       </c>
       <c r="I89" s="3">
         <v>-5700</v>
       </c>
       <c r="J89" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="K89" s="3">
         <v>-2200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-8400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4626,7 +4846,7 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -4634,8 +4854,8 @@
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
@@ -4643,35 +4863,38 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,20 +5002,23 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-71600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -4800,37 +5029,40 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>1000</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-600</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>217300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>12600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>28600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>33300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>12000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-76500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>214600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>10000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>22900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>27600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZOM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZOM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
   <si>
     <t>ZOM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,106 +665,110 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E8" s="3">
         <v>4100</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
+      <c r="H8" s="3">
+        <v>0</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>4</v>
@@ -772,8 +776,8 @@
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -802,8 +806,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -811,7 +818,7 @@
         <v>1000</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -819,8 +826,8 @@
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
+      <c r="H9" s="3">
+        <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
@@ -858,25 +865,28 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E10" s="3">
         <v>3100</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
+      <c r="H10" s="3">
+        <v>0</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
@@ -914,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,64 +949,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>400</v>
+      </c>
+      <c r="E12" s="3">
         <v>700</v>
-      </c>
-      <c r="E12" s="3">
-        <v>300</v>
       </c>
       <c r="F12" s="3">
         <v>300</v>
       </c>
       <c r="G12" s="3">
+        <v>300</v>
+      </c>
+      <c r="H12" s="3">
         <v>400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>7500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>6600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,25 +1065,28 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-500</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1121,8 +1144,8 @@
       <c r="G15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="3">
-        <v>100</v>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I15" s="3">
         <v>100</v>
@@ -1131,7 +1154,7 @@
         <v>100</v>
       </c>
       <c r="K15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L15" s="3">
         <v>200</v>
@@ -1146,13 +1169,13 @@
         <v>200</v>
       </c>
       <c r="P15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q15" s="3">
         <v>100</v>
       </c>
       <c r="R15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E17" s="3">
         <v>9800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>11700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-6400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3900</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3">
         <v>-2300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-11700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-4100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,13 +1346,14 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
@@ -1328,23 +1362,23 @@
         <v>100</v>
       </c>
       <c r="G20" s="3">
+        <v>100</v>
+      </c>
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1358,80 +1392,86 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-4800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-6200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3900</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
         <v>-2300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-11500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-4100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1466,8 +1506,8 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>4</v>
@@ -1481,73 +1521,79 @@
       <c r="T22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-11700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2300</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-11700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-11700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,13 +2052,16 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
@@ -2000,23 +2070,23 @@
         <v>-100</v>
       </c>
       <c r="G32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2030,75 +2100,81 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-11700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-11700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2400,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>192300</v>
+      </c>
+      <c r="E41" s="3">
         <v>195000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>271400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>276200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>276600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>62000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>52000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>29100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2516,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2435,25 +2528,25 @@
         <v>800</v>
       </c>
       <c r="E43" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="F43" s="3">
         <v>300</v>
       </c>
       <c r="G43" s="3">
+        <v>300</v>
+      </c>
+      <c r="H43" s="3">
         <v>200</v>
-      </c>
-      <c r="H43" s="3">
-        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
       </c>
       <c r="J43" s="3">
+        <v>100</v>
+      </c>
+      <c r="K43" s="3">
         <v>200</v>
-      </c>
-      <c r="K43" s="3">
-        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
@@ -2471,37 +2564,40 @@
         <v>100</v>
       </c>
       <c r="Q43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
       <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
         <v>100</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E44" s="3">
         <v>2800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>300</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2517,8 +2613,8 @@
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -2538,120 +2634,129 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E45" s="3">
         <v>1800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1100</v>
-      </c>
-      <c r="S45" s="3">
-        <v>800</v>
       </c>
       <c r="T45" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>198500</v>
+      </c>
+      <c r="E46" s="3">
         <v>200400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>274700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>277500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>278500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>62900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>53100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>30100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,87 +2811,93 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E48" s="3">
         <v>2500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>75700</v>
+      </c>
+      <c r="E49" s="3">
         <v>76800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>300</v>
-      </c>
-      <c r="H49" s="3">
-        <v>400</v>
       </c>
       <c r="I49" s="3">
         <v>400</v>
       </c>
       <c r="J49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K49" s="3">
         <v>500</v>
@@ -2798,7 +2909,7 @@
         <v>500</v>
       </c>
       <c r="N49" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2939,28 +3059,28 @@
         <v>700</v>
       </c>
       <c r="E52" s="3">
+        <v>700</v>
+      </c>
+      <c r="F52" s="3">
         <v>200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1100</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
       <c r="H52" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I52" s="3">
         <v>1000</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
+      <c r="J52" s="3">
+        <v>1000</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2972,22 +3092,25 @@
         <v>0</v>
       </c>
       <c r="P52" s="3">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="3">
         <v>1400</v>
       </c>
       <c r="R52" s="3">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="S52" s="3">
         <v>500</v>
       </c>
       <c r="T52" s="3">
+        <v>500</v>
+      </c>
+      <c r="U52" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>278000</v>
+      </c>
+      <c r="E54" s="3">
         <v>280400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>277500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>280400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>280500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>66100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>56600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>32800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,64 +3272,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E57" s="3">
         <v>3200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3210,10 +3344,10 @@
         <v>400</v>
       </c>
       <c r="F58" s="3">
+        <v>400</v>
+      </c>
+      <c r="G58" s="3">
         <v>300</v>
-      </c>
-      <c r="G58" s="3">
-        <v>800</v>
       </c>
       <c r="H58" s="3">
         <v>800</v>
@@ -3225,11 +3359,11 @@
         <v>800</v>
       </c>
       <c r="K58" s="3">
+        <v>800</v>
+      </c>
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3245,8 +3379,8 @@
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3254,17 +3388,20 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3280,8 +3417,8 @@
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -3310,94 +3447,100 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E60" s="3">
         <v>4300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3400</v>
-      </c>
-      <c r="G60" s="3">
-        <v>2000</v>
       </c>
       <c r="H60" s="3">
         <v>2000</v>
       </c>
       <c r="I60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J60" s="3">
         <v>2100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>900</v>
+      </c>
+      <c r="E61" s="3">
         <v>1000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1100</v>
-      </c>
-      <c r="I61" s="3">
-        <v>1200</v>
       </c>
       <c r="J61" s="3">
         <v>1200</v>
       </c>
       <c r="K61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L61" s="3">
         <v>1300</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3422,17 +3565,20 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E62" s="3">
         <v>4200</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3448,8 +3594,8 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E66" s="3">
         <v>9500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3100</v>
-      </c>
-      <c r="I66" s="3">
-        <v>3200</v>
       </c>
       <c r="J66" s="3">
         <v>3200</v>
       </c>
       <c r="K66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="L66" s="3">
         <v>3100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3854,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
         <v>12000</v>
@@ -3875,7 +4043,7 @@
         <v>12000</v>
       </c>
       <c r="O70" s="3">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="P70" s="3">
         <v>0</v>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-123300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-119400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-116100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-109800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-105000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-68500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-64800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-59800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-54500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-52100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-49200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-46400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-44000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-28000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-23900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-21900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-17800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-15600</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>269000</v>
+      </c>
+      <c r="E76" s="3">
         <v>270900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>271600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>276100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>277500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>51100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>41400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>17600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-10000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-9900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-6900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-11700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4432,7 +4631,7 @@
         <v>800</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
@@ -4450,7 +4649,7 @@
         <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>200</v>
@@ -4465,13 +4664,13 @@
         <v>200</v>
       </c>
       <c r="P83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q83" s="3">
         <v>100</v>
       </c>
       <c r="R83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2700</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-5700</v>
       </c>
       <c r="J89" s="3">
         <v>-5700</v>
       </c>
       <c r="K89" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="L89" s="3">
         <v>-2200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-8400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-3400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5057,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4849,7 +5070,7 @@
         <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -4857,8 +5078,8 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
@@ -4866,35 +5087,38 @@
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,23 +5232,26 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-71600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -5032,37 +5262,40 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>1000</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-600</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5550,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5316,78 +5562,81 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>217300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>12600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>28600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>33300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>12000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>4000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -5419,60 +5668,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-76500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>214600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>10000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>22900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>27600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZOM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZOM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
   <si>
     <t>ZOM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,113 +665,117 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E8" s="3">
         <v>3800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4100</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
+      <c r="I8" s="3">
+        <v>0</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>4</v>
@@ -779,8 +783,8 @@
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -809,19 +813,22 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="E9" s="3">
         <v>1000</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -829,8 +836,8 @@
       <c r="H9" s="3">
         <v>0</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
+      <c r="I9" s="3">
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
@@ -868,28 +875,31 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E10" s="3">
         <v>2800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3100</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
+      <c r="I10" s="3">
+        <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
@@ -927,8 +937,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,67 +963,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>300</v>
+      </c>
+      <c r="E12" s="3">
         <v>400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>700</v>
-      </c>
-      <c r="F12" s="3">
-        <v>300</v>
       </c>
       <c r="G12" s="3">
         <v>300</v>
       </c>
       <c r="H12" s="3">
+        <v>300</v>
+      </c>
+      <c r="I12" s="3">
         <v>400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>7500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>6600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>2500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,28 +1085,31 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-500</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1127,8 +1147,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1147,8 +1170,8 @@
       <c r="H15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="3">
-        <v>100</v>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J15" s="3">
         <v>100</v>
@@ -1157,7 +1180,7 @@
         <v>100</v>
       </c>
       <c r="L15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M15" s="3">
         <v>200</v>
@@ -1172,13 +1195,13 @@
         <v>200</v>
       </c>
       <c r="Q15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R15" s="3">
         <v>100</v>
       </c>
       <c r="S15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E17" s="3">
         <v>8100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>11700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3900</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>-2300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-11700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-8400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-4100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,16 +1380,17 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
@@ -1365,23 +1399,23 @@
         <v>100</v>
       </c>
       <c r="H20" s="3">
+        <v>100</v>
+      </c>
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1395,86 +1429,92 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-4800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-6200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-4600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3900</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>-2300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-11500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-8400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-4100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1509,8 +1549,8 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>4</v>
@@ -1524,79 +1564,85 @@
       <c r="U22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-11700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-8400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2300</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1642,8 +1688,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-11700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-8400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-11700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-8400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,16 +2122,19 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
@@ -2073,23 +2143,23 @@
         <v>-100</v>
       </c>
       <c r="H32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2103,78 +2173,84 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-11700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-8400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-11700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-8400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2487,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>186800</v>
+      </c>
+      <c r="E41" s="3">
         <v>192300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>195000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>271400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>276200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>276600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>62000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>52000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>29100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,37 +2609,40 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E43" s="3">
         <v>800</v>
       </c>
       <c r="F43" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="G43" s="3">
         <v>300</v>
       </c>
       <c r="H43" s="3">
+        <v>300</v>
+      </c>
+      <c r="I43" s="3">
         <v>200</v>
-      </c>
-      <c r="I43" s="3">
-        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
       </c>
       <c r="K43" s="3">
+        <v>100</v>
+      </c>
+      <c r="L43" s="3">
         <v>200</v>
-      </c>
-      <c r="L43" s="3">
-        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
@@ -2567,40 +2660,43 @@
         <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
       <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
         <v>100</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E44" s="3">
         <v>3600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>300</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2616,8 +2712,8 @@
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -2637,149 +2733,158 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E45" s="3">
         <v>1700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1100</v>
-      </c>
-      <c r="T45" s="3">
-        <v>800</v>
       </c>
       <c r="U45" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>194600</v>
+      </c>
+      <c r="E46" s="3">
         <v>198500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>200400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>274700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>277500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>278500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>62900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>53100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>30100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>1000</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2814,93 +2919,99 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E48" s="3">
         <v>3100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>75400</v>
+      </c>
+      <c r="E49" s="3">
         <v>75700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>76800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>300</v>
-      </c>
-      <c r="I49" s="3">
-        <v>400</v>
       </c>
       <c r="J49" s="3">
         <v>400</v>
       </c>
       <c r="K49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L49" s="3">
         <v>500</v>
@@ -2912,7 +3023,7 @@
         <v>500</v>
       </c>
       <c r="O49" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,40 +3167,43 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E52" s="3">
         <v>700</v>
       </c>
       <c r="F52" s="3">
+        <v>700</v>
+      </c>
+      <c r="G52" s="3">
         <v>200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1100</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
       <c r="I52" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>1000</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
+      <c r="K52" s="3">
+        <v>1000</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -3095,22 +3215,25 @@
         <v>0</v>
       </c>
       <c r="Q52" s="3">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="R52" s="3">
         <v>1400</v>
       </c>
       <c r="S52" s="3">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="T52" s="3">
         <v>500</v>
       </c>
       <c r="U52" s="3">
+        <v>500</v>
+      </c>
+      <c r="V52" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>275500</v>
+      </c>
+      <c r="E54" s="3">
         <v>278000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>280400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>277500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>280400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>280500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>66100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>56600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>32800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,72 +3403,76 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E57" s="3">
         <v>3100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E58" s="3">
         <v>400</v>
@@ -3347,10 +3481,10 @@
         <v>400</v>
       </c>
       <c r="G58" s="3">
+        <v>400</v>
+      </c>
+      <c r="H58" s="3">
         <v>300</v>
-      </c>
-      <c r="H58" s="3">
-        <v>800</v>
       </c>
       <c r="I58" s="3">
         <v>800</v>
@@ -3362,11 +3496,11 @@
         <v>800</v>
       </c>
       <c r="L58" s="3">
+        <v>800</v>
+      </c>
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3382,8 +3516,8 @@
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -3391,20 +3525,23 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3420,8 +3557,8 @@
       <c r="K59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -3450,100 +3587,106 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E60" s="3">
         <v>4100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3400</v>
-      </c>
-      <c r="H60" s="3">
-        <v>2000</v>
       </c>
       <c r="I60" s="3">
         <v>2000</v>
       </c>
       <c r="J60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K60" s="3">
         <v>2100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E61" s="3">
         <v>900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1100</v>
-      </c>
-      <c r="J61" s="3">
-        <v>1200</v>
       </c>
       <c r="K61" s="3">
         <v>1200</v>
       </c>
       <c r="L61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M61" s="3">
         <v>1300</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3568,20 +3711,23 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E62" s="3">
         <v>4000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4200</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3597,8 +3743,8 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E66" s="3">
         <v>8900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3100</v>
-      </c>
-      <c r="J66" s="3">
-        <v>3200</v>
       </c>
       <c r="K66" s="3">
         <v>3200</v>
       </c>
       <c r="L66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="M66" s="3">
         <v>3100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4025,7 +4193,7 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
         <v>12000</v>
@@ -4046,7 +4214,7 @@
         <v>12000</v>
       </c>
       <c r="P70" s="3">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="Q70" s="3">
         <v>0</v>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-128600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-123300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-119400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-116100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-109800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-105000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-68500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-64800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-59800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-54500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-52100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-49200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-46400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-44000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-28000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-23900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-21900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-17800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-15600</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>266200</v>
+      </c>
+      <c r="E76" s="3">
         <v>269000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>270900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>271600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>276100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>277500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>51100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>41400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-10000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-9900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-6900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-4300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-11700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-8400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4634,7 +4833,7 @@
         <v>800</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
@@ -4652,7 +4851,7 @@
         <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>200</v>
@@ -4667,13 +4866,13 @@
         <v>200</v>
       </c>
       <c r="Q83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R83" s="3">
         <v>100</v>
       </c>
       <c r="S83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
@@ -4681,8 +4880,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2700</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-5700</v>
       </c>
       <c r="K89" s="3">
         <v>-5700</v>
       </c>
       <c r="L89" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="M89" s="3">
         <v>-2200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-8400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-3300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-3400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5278,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5073,7 +5294,7 @@
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -5081,8 +5302,8 @@
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
@@ -5090,35 +5311,38 @@
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,26 +5462,29 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-71600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -5265,37 +5495,40 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>1000</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-600</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,8 +5796,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5565,64 +5811,67 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>217300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>12600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>28600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>33300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>12000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>4000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F101" s="3" t="s">
         <v>4</v>
       </c>
@@ -5638,8 +5887,8 @@
       <c r="J101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -5671,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-76500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>214600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>10000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>22900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>27600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZOM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZOM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
   <si>
     <t>ZOM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,120 +665,124 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E8" s="3">
         <v>4200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4100</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
+      <c r="J8" s="3">
+        <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
@@ -786,8 +790,8 @@
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -816,8 +820,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -825,13 +832,13 @@
         <v>1200</v>
       </c>
       <c r="E9" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="F9" s="3">
         <v>1000</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -839,8 +846,8 @@
       <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
+      <c r="J9" s="3">
+        <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
@@ -878,31 +885,34 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E10" s="3">
         <v>3000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3100</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
         <v>0</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
+      <c r="J10" s="3">
+        <v>0</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
@@ -940,8 +950,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,70 +977,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E12" s="3">
         <v>300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>700</v>
-      </c>
-      <c r="G12" s="3">
-        <v>300</v>
       </c>
       <c r="H12" s="3">
         <v>300</v>
       </c>
       <c r="I12" s="3">
+        <v>300</v>
+      </c>
+      <c r="J12" s="3">
         <v>400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>7500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>6600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>2500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1105,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1099,20 +1119,20 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-500</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1150,8 +1170,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1173,8 +1196,8 @@
       <c r="I15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="3">
-        <v>100</v>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K15" s="3">
         <v>100</v>
@@ -1183,7 +1206,7 @@
         <v>100</v>
       </c>
       <c r="M15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N15" s="3">
         <v>200</v>
@@ -1198,13 +1221,13 @@
         <v>200</v>
       </c>
       <c r="R15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S15" s="3">
         <v>100</v>
       </c>
       <c r="T15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U15" s="3">
         <v>0</v>
@@ -1212,8 +1235,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1259,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E17" s="3">
         <v>10100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>11700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3900</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3">
         <v>-2300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-11700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-8400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-4100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,19 +1414,20 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>900</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>100</v>
@@ -1402,23 +1436,23 @@
         <v>100</v>
       </c>
       <c r="I20" s="3">
+        <v>100</v>
+      </c>
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1432,81 +1466,87 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-4800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-4600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3900</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>-2300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-11500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-8400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-4100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-2100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1516,8 +1556,8 @@
       <c r="E22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1552,8 +1592,8 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>4</v>
@@ -1567,8 +1607,11 @@
       <c r="V22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1576,76 +1619,79 @@
         <v>-5700</v>
       </c>
       <c r="E23" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-4200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-11700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-8400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-4100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-2300</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1691,8 +1737,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-11700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-8400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-4100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-11700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-8400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-4100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,19 +2192,22 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>-100</v>
@@ -2146,23 +2216,23 @@
         <v>-100</v>
       </c>
       <c r="I32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2176,81 +2246,87 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-11700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-8400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-4100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-11700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-8400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-4100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,93 +2574,97 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>45100</v>
+      </c>
+      <c r="E41" s="3">
         <v>186800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>192300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>195000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>271400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>276200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>276600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>62000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>52000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>29100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>74200</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2612,40 +2702,43 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E43" s="3">
         <v>700</v>
-      </c>
-      <c r="E43" s="3">
-        <v>800</v>
       </c>
       <c r="F43" s="3">
         <v>800</v>
       </c>
       <c r="G43" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="H43" s="3">
         <v>300</v>
       </c>
       <c r="I43" s="3">
+        <v>300</v>
+      </c>
+      <c r="J43" s="3">
         <v>200</v>
-      </c>
-      <c r="J43" s="3">
-        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
       </c>
       <c r="L43" s="3">
+        <v>100</v>
+      </c>
+      <c r="M43" s="3">
         <v>200</v>
-      </c>
-      <c r="M43" s="3">
-        <v>100</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
@@ -2663,43 +2756,46 @@
         <v>100</v>
       </c>
       <c r="S43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
       </c>
       <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
         <v>100</v>
       </c>
-      <c r="V43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E44" s="3">
         <v>4800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>300</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2715,8 +2811,8 @@
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
@@ -2736,141 +2832,150 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E45" s="3">
         <v>2300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1100</v>
-      </c>
-      <c r="U45" s="3">
-        <v>800</v>
       </c>
       <c r="V45" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>127100</v>
+      </c>
+      <c r="E46" s="3">
         <v>194600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>198500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>200400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>274700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>277500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>278500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>62900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>53100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>30100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>39200</v>
+      </c>
+      <c r="E47" s="3">
         <v>1000</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2886,8 +2991,8 @@
       <c r="J47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2922,99 +3027,105 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E48" s="3">
         <v>3900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>107000</v>
+      </c>
+      <c r="E49" s="3">
         <v>75400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>75700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>76800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>300</v>
-      </c>
-      <c r="J49" s="3">
-        <v>400</v>
       </c>
       <c r="K49" s="3">
         <v>400</v>
       </c>
       <c r="L49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M49" s="3">
         <v>500</v>
@@ -3026,7 +3137,7 @@
         <v>500</v>
       </c>
       <c r="P49" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -3046,8 +3157,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,43 +3287,46 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>500</v>
+      </c>
+      <c r="E52" s="3">
         <v>600</v>
-      </c>
-      <c r="E52" s="3">
-        <v>700</v>
       </c>
       <c r="F52" s="3">
         <v>700</v>
       </c>
       <c r="G52" s="3">
+        <v>700</v>
+      </c>
+      <c r="H52" s="3">
         <v>200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1100</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
       <c r="J52" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K52" s="3">
         <v>1000</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
+      <c r="L52" s="3">
+        <v>1000</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -3218,22 +3338,25 @@
         <v>0</v>
       </c>
       <c r="R52" s="3">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="S52" s="3">
         <v>1400</v>
       </c>
       <c r="T52" s="3">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="U52" s="3">
         <v>500</v>
       </c>
       <c r="V52" s="3">
+        <v>500</v>
+      </c>
+      <c r="W52" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3417,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>282300</v>
+      </c>
+      <c r="E54" s="3">
         <v>275500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>278000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>280400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>277500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>280400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>280500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>66100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>56600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>32800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,78 +3534,82 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E57" s="3">
         <v>3500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>600</v>
+      </c>
+      <c r="E58" s="3">
         <v>500</v>
-      </c>
-      <c r="E58" s="3">
-        <v>400</v>
       </c>
       <c r="F58" s="3">
         <v>400</v>
@@ -3484,10 +3618,10 @@
         <v>400</v>
       </c>
       <c r="H58" s="3">
+        <v>400</v>
+      </c>
+      <c r="I58" s="3">
         <v>300</v>
-      </c>
-      <c r="I58" s="3">
-        <v>800</v>
       </c>
       <c r="J58" s="3">
         <v>800</v>
@@ -3499,11 +3633,11 @@
         <v>800</v>
       </c>
       <c r="M58" s="3">
+        <v>800</v>
+      </c>
+      <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3519,8 +3653,8 @@
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -3528,23 +3662,26 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>300</v>
+      </c>
+      <c r="E59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3560,8 +3697,8 @@
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -3590,106 +3727,112 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E60" s="3">
         <v>4500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3400</v>
-      </c>
-      <c r="I60" s="3">
-        <v>2000</v>
       </c>
       <c r="J60" s="3">
         <v>2000</v>
       </c>
       <c r="K60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L60" s="3">
         <v>2100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E61" s="3">
         <v>1200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1100</v>
-      </c>
-      <c r="K61" s="3">
-        <v>1200</v>
       </c>
       <c r="L61" s="3">
         <v>1200</v>
       </c>
       <c r="M61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N61" s="3">
         <v>1300</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3714,23 +3857,26 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E62" s="3">
         <v>3600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4200</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3746,8 +3892,8 @@
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3776,8 +3922,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4117,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E66" s="3">
         <v>9300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3100</v>
-      </c>
-      <c r="K66" s="3">
-        <v>3200</v>
       </c>
       <c r="L66" s="3">
         <v>3200</v>
       </c>
       <c r="M66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="N66" s="3">
         <v>3100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4196,7 +4364,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="K70" s="3">
         <v>12000</v>
@@ -4217,7 +4385,7 @@
         <v>12000</v>
       </c>
       <c r="Q70" s="3">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="R70" s="3">
         <v>0</v>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4467,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-133600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-128600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-123300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-119400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-116100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-109800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-105000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-68500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-64800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-59800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-54500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-52100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-49200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-46400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-44000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-28000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-23900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-21900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-17800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-15600</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4727,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>268800</v>
+      </c>
+      <c r="E76" s="3">
         <v>266200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>269000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>270900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>271600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>276100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>277500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>51100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>41400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>17600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-10000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-9900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-6900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-11700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-8400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-4100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,13 +5019,14 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="E83" s="3">
         <v>800</v>
@@ -4836,7 +5035,7 @@
         <v>800</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
@@ -4854,7 +5053,7 @@
         <v>100</v>
       </c>
       <c r="M83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
         <v>200</v>
@@ -4869,13 +5068,13 @@
         <v>200</v>
       </c>
       <c r="R83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S83" s="3">
         <v>100</v>
       </c>
       <c r="T83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
@@ -4883,8 +5082,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2700</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-5700</v>
       </c>
       <c r="L89" s="3">
         <v>-5700</v>
       </c>
       <c r="M89" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="N89" s="3">
         <v>-2200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-3300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-3400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-2700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,13 +5499,14 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
@@ -5297,7 +5518,7 @@
         <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -5305,8 +5526,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
@@ -5314,35 +5535,38 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,29 +5692,32 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-138900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-71600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -5498,37 +5728,40 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>1000</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-600</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,8 +6042,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5814,67 +6060,70 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>217300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>12600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>28600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>33300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>12000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>3000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>4800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>4000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>4</v>
       </c>
@@ -5890,8 +6139,8 @@
       <c r="K101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -5923,66 +6172,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-141700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-76500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>214600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>10000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>22900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>27600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZOM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZOM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
   <si>
     <t>ZOM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,139 +665,146 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F8" s="3">
         <v>4800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>4200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>3800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>4100</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -823,37 +830,43 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F9" s="3">
         <v>1200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1000</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
@@ -888,37 +901,43 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F10" s="3">
         <v>3600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>3000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>2800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>3100</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
@@ -953,8 +972,14 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -978,73 +1003,81 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>800</v>
+      </c>
+      <c r="F12" s="3">
         <v>1100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>2700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>3900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>1000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>1100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>7500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>6600</v>
-      </c>
-      <c r="T12" s="3">
-        <v>600</v>
-      </c>
-      <c r="U12" s="3">
-        <v>2500</v>
       </c>
       <c r="V12" s="3">
         <v>600</v>
       </c>
       <c r="W12" s="3">
+        <v>2500</v>
+      </c>
+      <c r="X12" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y12" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,37 +1141,43 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-500</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1173,8 +1212,14 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1199,20 +1244,20 @@
       <c r="J15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="3">
-        <v>100</v>
-      </c>
-      <c r="L15" s="3">
-        <v>100</v>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M15" s="3">
         <v>100</v>
       </c>
       <c r="N15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P15" s="3">
         <v>200</v>
@@ -1224,22 +1269,28 @@
         <v>200</v>
       </c>
       <c r="S15" s="3">
+        <v>200</v>
+      </c>
+      <c r="T15" s="3">
+        <v>200</v>
+      </c>
+      <c r="U15" s="3">
         <v>100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>100</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
-      <c r="V15" s="3">
-        <v>0</v>
-      </c>
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1311,152 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F17" s="3">
         <v>11400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>10100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>8100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>9800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>6400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>4800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>4100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>5000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>5300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>11700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>8400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>4100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>2200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-6600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-5900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-4300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-5700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-6400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-4800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-3900</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3">
         <v>-2300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-2900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-2400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-11700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-8400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-1800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-4100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-2200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,50 +1480,52 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>100</v>
-      </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
       </c>
       <c r="J20" s="3">
+        <v>100</v>
+      </c>
+      <c r="K20" s="3">
+        <v>100</v>
+      </c>
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1469,101 +1536,113 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-4500</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-3400</v>
       </c>
       <c r="G21" s="3">
         <v>-4800</v>
       </c>
       <c r="H21" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="J21" s="3">
         <v>-6200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-4600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-3900</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3">
         <v>-2300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-2700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-2200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-11500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-8400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-1800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-4100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-2100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1595,11 +1674,11 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>4</v>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>4</v>
@@ -1610,94 +1689,106 @@
       <c r="W22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-5700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-5700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-4200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-5600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-6300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-4700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-4000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-4200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-5000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-5300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-2900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-2400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-11700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-8400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-1900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-4100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-2200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F24" s="3">
         <v>-700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-2300</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1740,8 +1831,14 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1902,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-5000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-5300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-3900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-3300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-6300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-4700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-4000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-4200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-5000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-5300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-2500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-2900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-2400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-11700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-8400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-1900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-4100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-2200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-5000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-5300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-3900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-3300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-6300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-4700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-4000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-4200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-5000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-5300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-2500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-2900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-2400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-11700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-8400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-1900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-4100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-2200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2115,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2065,8 +2186,14 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2257,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,50 +2328,56 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-100</v>
-      </c>
       <c r="H32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
       </c>
       <c r="J32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2249,84 +2388,96 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-5000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-5300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-3900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-3300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-6300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-4700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-4000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-4200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-5000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-5300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-2500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-2900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-2400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-11700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-8400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-1900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-4100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-2200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2541,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-5000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-5300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-3900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-3300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-6300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-4700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-4000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-4200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-5000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-5300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-2500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-2900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-2400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-11700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-8400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-1900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-4100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-2200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2719,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,85 +2746,93 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>27400</v>
+      </c>
+      <c r="F41" s="3">
         <v>45100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>186800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>192300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>195000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>271400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>276200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>276600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>62000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>52000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>29100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>2500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>5800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>2300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>4300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>3100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>112700</v>
+      </c>
+      <c r="E42" s="3">
+        <v>87700</v>
+      </c>
+      <c r="F42" s="3">
         <v>74200</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2666,11 +2845,11 @@
       <c r="J42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2705,46 +2884,52 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F43" s="3">
         <v>1800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>100</v>
-      </c>
-      <c r="L43" s="3">
-        <v>100</v>
-      </c>
-      <c r="M43" s="3">
-        <v>200</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P43" s="3">
         <v>100</v>
@@ -2759,49 +2944,55 @@
         <v>100</v>
       </c>
       <c r="T43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
         <v>100</v>
       </c>
-      <c r="W43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F44" s="3">
         <v>2400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>4800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>3600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>2800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>1400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>300</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2814,11 +3005,11 @@
       <c r="P44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
-      </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
@@ -2835,153 +3026,171 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F45" s="3">
         <v>3600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>1100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>1900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>1500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>1100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>130200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>123500</v>
+      </c>
+      <c r="F46" s="3">
         <v>127100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>194600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>198500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>200400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>274700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>277500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>278500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>62900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>53100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>30100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>4100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>7300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>3500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>3900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>2000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>5500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>4000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E47" s="3">
+        <v>40700</v>
+      </c>
+      <c r="F47" s="3">
         <v>39200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>1000</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2994,11 +3203,11 @@
       <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -3030,108 +3239,120 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F48" s="3">
         <v>8500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>3900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>3100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>2200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>2300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>800</v>
-      </c>
-      <c r="U48" s="3">
-        <v>400</v>
-      </c>
-      <c r="V48" s="3">
-        <v>300</v>
       </c>
       <c r="W48" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>112400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>105800</v>
+      </c>
+      <c r="F49" s="3">
         <v>107000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>75400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>75700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>76800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>500</v>
-      </c>
-      <c r="I49" s="3">
-        <v>400</v>
-      </c>
-      <c r="J49" s="3">
-        <v>300</v>
       </c>
       <c r="K49" s="3">
         <v>400</v>
       </c>
       <c r="L49" s="3">
+        <v>300</v>
+      </c>
+      <c r="M49" s="3">
         <v>400</v>
       </c>
-      <c r="M49" s="3">
-        <v>500</v>
-      </c>
       <c r="N49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O49" s="3">
         <v>500</v>
@@ -3140,10 +3361,10 @@
         <v>500</v>
       </c>
       <c r="Q49" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="R49" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -3160,8 +3381,14 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3452,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,49 +3523,55 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>400</v>
+      </c>
+      <c r="E52" s="3">
         <v>500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
+        <v>500</v>
+      </c>
+      <c r="G52" s="3">
         <v>600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1100</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>1000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1000</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -3341,22 +3580,28 @@
         <v>0</v>
       </c>
       <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
         <v>1400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>1400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,73 +3665,85 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>279600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>279600</v>
+      </c>
+      <c r="F54" s="3">
         <v>282300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>275500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>278000</v>
-      </c>
-      <c r="G54" s="3">
-        <v>280400</v>
-      </c>
-      <c r="H54" s="3">
-        <v>277500</v>
       </c>
       <c r="I54" s="3">
         <v>280400</v>
       </c>
       <c r="J54" s="3">
+        <v>277500</v>
+      </c>
+      <c r="K54" s="3">
+        <v>280400</v>
+      </c>
+      <c r="L54" s="3">
         <v>280500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>66100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>56600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>32800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>5000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>4200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>6600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>9500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>5900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>6000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>4200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>6400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>4900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3767,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,73 +3794,81 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F57" s="3">
         <v>6200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>3500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>3100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>3200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>4500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>3100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1100</v>
-      </c>
-      <c r="K57" s="3">
-        <v>1200</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1300</v>
       </c>
       <c r="M57" s="3">
         <v>1200</v>
       </c>
       <c r="N57" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="O57" s="3">
-        <v>2100</v>
+        <v>1200</v>
       </c>
       <c r="P57" s="3">
         <v>1600</v>
       </c>
       <c r="Q57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="R57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S57" s="3">
         <v>1800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>7800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>2400</v>
-      </c>
-      <c r="T57" s="3">
-        <v>1300</v>
-      </c>
-      <c r="U57" s="3">
-        <v>1700</v>
       </c>
       <c r="V57" s="3">
         <v>1300</v>
       </c>
       <c r="W57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="X57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Y57" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3609,25 +3876,25 @@
         <v>600</v>
       </c>
       <c r="E58" s="3">
+        <v>600</v>
+      </c>
+      <c r="F58" s="3">
+        <v>600</v>
+      </c>
+      <c r="G58" s="3">
         <v>500</v>
-      </c>
-      <c r="F58" s="3">
-        <v>400</v>
-      </c>
-      <c r="G58" s="3">
-        <v>400</v>
       </c>
       <c r="H58" s="3">
         <v>400</v>
       </c>
       <c r="I58" s="3">
+        <v>400</v>
+      </c>
+      <c r="J58" s="3">
+        <v>400</v>
+      </c>
+      <c r="K58" s="3">
         <v>300</v>
-      </c>
-      <c r="J58" s="3">
-        <v>800</v>
-      </c>
-      <c r="K58" s="3">
-        <v>800</v>
       </c>
       <c r="L58" s="3">
         <v>800</v>
@@ -3636,14 +3903,14 @@
         <v>800</v>
       </c>
       <c r="N58" s="3">
+        <v>800</v>
+      </c>
+      <c r="O58" s="3">
+        <v>800</v>
+      </c>
+      <c r="P58" s="3">
         <v>200</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3656,38 +3923,44 @@
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E59" s="3">
         <v>500</v>
       </c>
       <c r="F59" s="3">
+        <v>300</v>
+      </c>
+      <c r="G59" s="3">
+        <v>500</v>
+      </c>
+      <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>700</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3700,11 +3973,11 @@
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -3730,115 +4003,127 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F60" s="3">
         <v>7100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>4100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>4300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2000</v>
-      </c>
-      <c r="K60" s="3">
-        <v>2000</v>
-      </c>
-      <c r="L60" s="3">
-        <v>2100</v>
       </c>
       <c r="M60" s="3">
         <v>2000</v>
       </c>
       <c r="N60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P60" s="3">
         <v>1800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>7800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2400</v>
-      </c>
-      <c r="T60" s="3">
-        <v>1300</v>
-      </c>
-      <c r="U60" s="3">
-        <v>1700</v>
       </c>
       <c r="V60" s="3">
         <v>1300</v>
       </c>
       <c r="W60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="X60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Y60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>900</v>
+      </c>
+      <c r="E61" s="3">
         <v>1100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G61" s="3">
         <v>1200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1300</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3860,29 +4145,35 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F62" s="3">
         <v>5300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>3600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>4000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>4200</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3895,11 +4186,11 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3925,8 +4216,14 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4287,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4358,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,73 +4429,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F66" s="3">
         <v>13500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>9300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>8900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>9500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>7800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2400</v>
-      </c>
-      <c r="T66" s="3">
-        <v>1300</v>
-      </c>
-      <c r="U66" s="3">
-        <v>1700</v>
       </c>
       <c r="V66" s="3">
         <v>1300</v>
       </c>
       <c r="W66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="X66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Y66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4531,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4598,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4669,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4367,10 +4702,10 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="L70" s="3">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="M70" s="3">
         <v>12000</v>
@@ -4388,10 +4723,10 @@
         <v>12000</v>
       </c>
       <c r="R70" s="3">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="S70" s="3">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="T70" s="3">
         <v>0</v>
@@ -4405,8 +4740,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,73 +4811,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-142800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-136400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-133600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-128600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-123300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-119400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-116100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-109800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-105000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-68500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-64800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-59800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-54500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-52100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-49200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-46400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-44000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-28000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-23900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-21900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-17800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-15600</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4953,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +5024,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,73 +5095,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>263100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>267400</v>
+      </c>
+      <c r="F76" s="3">
         <v>268800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>266200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>269000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>270900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>271600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>276100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>277500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>51100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>41400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>17600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-10000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-9900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-4300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-1900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>3700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>2900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>4700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>3600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5237,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-5000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-5300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-3900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-3300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-6300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-4700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-4000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-4200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-5000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-5300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-2500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-2900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-2400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-11700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-8400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-1900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-4100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-2200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,28 +5415,30 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E83" s="3">
         <v>1200</v>
       </c>
-      <c r="E83" s="3">
-        <v>800</v>
-      </c>
       <c r="F83" s="3">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="G83" s="3">
         <v>800</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
@@ -5056,10 +5453,10 @@
         <v>100</v>
       </c>
       <c r="N83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>200</v>
@@ -5071,22 +5468,28 @@
         <v>200</v>
       </c>
       <c r="S83" s="3">
+        <v>200</v>
+      </c>
+      <c r="T83" s="3">
+        <v>200</v>
+      </c>
+      <c r="U83" s="3">
         <v>100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>100</v>
       </c>
-      <c r="U83" s="3">
-        <v>0</v>
-      </c>
-      <c r="V83" s="3">
-        <v>0</v>
-      </c>
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5553,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5624,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5695,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5766,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5837,85 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-4000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-2500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-4900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-5000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-2600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-2700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-5700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-5700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-2200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-8400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-2600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-3300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-3400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-2700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-1700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,19 +5939,21 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-400</v>
+        <v>-4100</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>-800</v>
       </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>-1800</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
@@ -5521,28 +5962,28 @@
         <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-100</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -5554,19 +5995,25 @@
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +6077,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,35 +6148,41 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-138900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1400</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-71600</v>
       </c>
       <c r="H94" s="3">
         <v>-200</v>
       </c>
       <c r="I94" s="3">
+        <v>-71600</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -5731,37 +6190,43 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>1000</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-600</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6250,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6317,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6388,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6459,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,13 +6530,19 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -6063,55 +6554,61 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>1500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>217300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>12600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>28600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>33300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>2200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>12000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>3000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>4800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>4000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>1400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6119,17 +6616,17 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>4</v>
       </c>
@@ -6142,11 +6639,11 @@
       <c r="L101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -6175,69 +6672,81 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="F102" s="3">
         <v>-141700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-5600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-2600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-76500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-4800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>214600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>10000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>22900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>27600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-2000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>3500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>1400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-3800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>1100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-1100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZOM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZOM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
   <si>
     <t>ZOM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,140 +665,144 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4100</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
+      <c r="M8" s="3">
+        <v>0</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>4</v>
@@ -806,8 +810,8 @@
       <c r="O8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="P8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
@@ -836,31 +840,34 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1900</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1200</v>
       </c>
       <c r="G9" s="3">
         <v>1200</v>
       </c>
       <c r="H9" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="I9" s="3">
         <v>1000</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -868,8 +875,8 @@
       <c r="L9" s="3">
         <v>0</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
+      <c r="M9" s="3">
+        <v>0</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>4</v>
@@ -907,40 +914,43 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E10" s="3">
         <v>3900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3100</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
+      <c r="M10" s="3">
+        <v>0</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
@@ -978,8 +988,11 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1018,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1014,70 +1028,73 @@
         <v>900</v>
       </c>
       <c r="E12" s="3">
+        <v>900</v>
+      </c>
+      <c r="F12" s="3">
         <v>800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>700</v>
-      </c>
-      <c r="J12" s="3">
-        <v>300</v>
       </c>
       <c r="K12" s="3">
         <v>300</v>
       </c>
       <c r="L12" s="3">
+        <v>300</v>
+      </c>
+      <c r="M12" s="3">
         <v>400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>7500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>6600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>2500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>600</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,19 +1164,22 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
@@ -1167,20 +1187,20 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-500</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1218,8 +1238,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1250,8 +1273,8 @@
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="3">
-        <v>100</v>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N15" s="3">
         <v>100</v>
@@ -1260,7 +1283,7 @@
         <v>100</v>
       </c>
       <c r="P15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q15" s="3">
         <v>200</v>
@@ -1275,13 +1298,13 @@
         <v>200</v>
       </c>
       <c r="U15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V15" s="3">
         <v>100</v>
       </c>
       <c r="W15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X15" s="3">
         <v>0</v>
@@ -1289,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1339,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E17" s="3">
         <v>13000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>11700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-7500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3900</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-11700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-8400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-4100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,28 +1515,29 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E20" s="3">
         <v>1400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
@@ -1512,23 +1546,23 @@
         <v>100</v>
       </c>
       <c r="L20" s="3">
+        <v>100</v>
+      </c>
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1542,90 +1576,96 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-4800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-4800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-4800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-6200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3900</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-11500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-8400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-4100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1633,10 +1673,10 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>4</v>
@@ -1644,8 +1684,8 @@
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1680,8 +1720,8 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>4</v>
+      <c r="U22" s="3">
+        <v>0</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>4</v>
@@ -1695,103 +1735,109 @@
       <c r="Y22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3900</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-5700</v>
       </c>
       <c r="G23" s="3">
         <v>-5700</v>
       </c>
       <c r="H23" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="I23" s="3">
         <v>-4200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-11700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-8400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-4100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2300</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1837,8 +1883,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1957,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-6400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-11700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-8400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-4100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-6400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-11700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-8400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-4100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,28 +2401,31 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
@@ -2364,23 +2434,23 @@
         <v>-100</v>
       </c>
       <c r="L32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2394,90 +2464,96 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>100</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-6400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-11700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-8400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-4100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-6400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-11700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-8400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-4100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,94 +2834,98 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E41" s="3">
         <v>8400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>27400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>45100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>186800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>192300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>195000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>271400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>276200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>276600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>62000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>52000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>29100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>102500</v>
+      </c>
+      <c r="E42" s="3">
         <v>112700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>87700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>74200</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2851,8 +2941,8 @@
       <c r="L42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2890,49 +2980,52 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>700</v>
-      </c>
-      <c r="H43" s="3">
-        <v>800</v>
       </c>
       <c r="I43" s="3">
         <v>800</v>
       </c>
       <c r="J43" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="K43" s="3">
         <v>300</v>
       </c>
       <c r="L43" s="3">
+        <v>300</v>
+      </c>
+      <c r="M43" s="3">
         <v>200</v>
-      </c>
-      <c r="M43" s="3">
-        <v>100</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
       </c>
       <c r="O43" s="3">
+        <v>100</v>
+      </c>
+      <c r="P43" s="3">
         <v>200</v>
-      </c>
-      <c r="P43" s="3">
-        <v>100</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
@@ -2950,52 +3043,55 @@
         <v>100</v>
       </c>
       <c r="V43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W43" s="3">
         <v>0</v>
       </c>
       <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
         <v>100</v>
       </c>
-      <c r="Y43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2700</v>
+        <v>3600</v>
       </c>
       <c r="E44" s="3">
         <v>2700</v>
       </c>
       <c r="F44" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G44" s="3">
         <v>2400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>300</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3011,8 +3107,8 @@
       <c r="R44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
+      <c r="S44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
@@ -3032,168 +3128,177 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E45" s="3">
         <v>4900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1100</v>
-      </c>
-      <c r="X45" s="3">
-        <v>800</v>
       </c>
       <c r="Y45" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>139600</v>
+      </c>
+      <c r="E46" s="3">
         <v>130200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>123500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>127100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>194600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>198500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>200400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>274700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>277500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>278500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>62900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>53100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>30100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E47" s="3">
         <v>26400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>40700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>39200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1000</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3209,8 +3314,8 @@
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -3245,117 +3350,123 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E48" s="3">
         <v>10200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>9200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>112100</v>
+      </c>
+      <c r="E49" s="3">
         <v>112400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>105800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>107000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>75400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>75700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>76800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>300</v>
-      </c>
-      <c r="M49" s="3">
-        <v>400</v>
       </c>
       <c r="N49" s="3">
         <v>400</v>
       </c>
       <c r="O49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="P49" s="3">
         <v>500</v>
@@ -3367,7 +3478,7 @@
         <v>500</v>
       </c>
       <c r="S49" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
@@ -3387,8 +3498,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3646,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3538,43 +3658,43 @@
         <v>400</v>
       </c>
       <c r="E52" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F52" s="3">
         <v>500</v>
       </c>
       <c r="G52" s="3">
+        <v>500</v>
+      </c>
+      <c r="H52" s="3">
         <v>600</v>
-      </c>
-      <c r="H52" s="3">
-        <v>700</v>
       </c>
       <c r="I52" s="3">
         <v>700</v>
       </c>
       <c r="J52" s="3">
+        <v>700</v>
+      </c>
+      <c r="K52" s="3">
         <v>200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1100</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
       <c r="M52" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N52" s="3">
         <v>1000</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
+      <c r="O52" s="3">
+        <v>1000</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -3586,22 +3706,25 @@
         <v>0</v>
       </c>
       <c r="U52" s="3">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="V52" s="3">
         <v>1400</v>
       </c>
       <c r="W52" s="3">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="X52" s="3">
         <v>500</v>
       </c>
       <c r="Y52" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z52" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3794,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>279600</v>
+        <v>274800</v>
       </c>
       <c r="E54" s="3">
         <v>279600</v>
       </c>
       <c r="F54" s="3">
+        <v>279600</v>
+      </c>
+      <c r="G54" s="3">
         <v>282300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>275500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>278000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>280400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>277500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>280400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>280500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>66100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>56600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>32800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>6400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,79 +3926,83 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E57" s="3">
         <v>7400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>7800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3882,10 +4016,10 @@
         <v>600</v>
       </c>
       <c r="G58" s="3">
+        <v>600</v>
+      </c>
+      <c r="H58" s="3">
         <v>500</v>
-      </c>
-      <c r="H58" s="3">
-        <v>400</v>
       </c>
       <c r="I58" s="3">
         <v>400</v>
@@ -3894,10 +4028,10 @@
         <v>400</v>
       </c>
       <c r="K58" s="3">
+        <v>400</v>
+      </c>
+      <c r="L58" s="3">
         <v>300</v>
-      </c>
-      <c r="L58" s="3">
-        <v>800</v>
       </c>
       <c r="M58" s="3">
         <v>800</v>
@@ -3909,11 +4043,11 @@
         <v>800</v>
       </c>
       <c r="P58" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q58" s="3">
         <v>200</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3929,8 +4063,8 @@
       <c r="V58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
+      <c r="W58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
@@ -3938,32 +4072,35 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E59" s="3">
         <v>500</v>
       </c>
       <c r="F59" s="3">
+        <v>500</v>
+      </c>
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3979,8 +4116,8 @@
       <c r="O59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="P59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -4009,124 +4146,130 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E60" s="3">
         <v>8600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3400</v>
-      </c>
-      <c r="L60" s="3">
-        <v>2000</v>
       </c>
       <c r="M60" s="3">
         <v>2000</v>
       </c>
       <c r="N60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O60" s="3">
         <v>2100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>800</v>
+      </c>
+      <c r="E61" s="3">
         <v>900</v>
-      </c>
-      <c r="E61" s="3">
-        <v>1100</v>
       </c>
       <c r="F61" s="3">
         <v>1100</v>
       </c>
       <c r="G61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H61" s="3">
         <v>1200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1100</v>
-      </c>
-      <c r="N61" s="3">
-        <v>1200</v>
       </c>
       <c r="O61" s="3">
         <v>1200</v>
       </c>
       <c r="P61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q61" s="3">
         <v>1300</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -4151,32 +4294,35 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E62" s="3">
         <v>7000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4200</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4192,8 +4338,8 @@
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -4222,8 +4368,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4590,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E66" s="3">
         <v>16500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>13500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3100</v>
-      </c>
-      <c r="N66" s="3">
-        <v>3200</v>
       </c>
       <c r="O66" s="3">
         <v>3200</v>
       </c>
       <c r="P66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="Q66" s="3">
         <v>3100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4708,7 +4876,7 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="N70" s="3">
         <v>12000</v>
@@ -4729,7 +4897,7 @@
         <v>12000</v>
       </c>
       <c r="T70" s="3">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="U70" s="3">
         <v>0</v>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4988,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-148000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-142800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-136400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-133600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-128600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-123300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-119400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-116100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-109800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-105000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-68500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-64800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-59800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-54500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-52100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-49200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-46400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-44000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-28000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-23900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-21900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-17800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-15600</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5284,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>259500</v>
+      </c>
+      <c r="E76" s="3">
         <v>263100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>267400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>268800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>266200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>269000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>270900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>271600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>276100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>277500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>51100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>41400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>17600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-9900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-6900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-4300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>4700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-6400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-11700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-8400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-4100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,22 +5615,23 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E83" s="3">
         <v>1400</v>
-      </c>
-      <c r="E83" s="3">
-        <v>1200</v>
       </c>
       <c r="F83" s="3">
         <v>1200</v>
       </c>
       <c r="G83" s="3">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="H83" s="3">
         <v>800</v>
@@ -5441,7 +5640,7 @@
         <v>800</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
@@ -5459,7 +5658,7 @@
         <v>100</v>
       </c>
       <c r="P83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q83" s="3">
         <v>200</v>
@@ -5474,13 +5673,13 @@
         <v>200</v>
       </c>
       <c r="U83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V83" s="3">
         <v>100</v>
       </c>
       <c r="W83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X83" s="3">
         <v>0</v>
@@ -5488,8 +5687,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6057,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2700</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-5700</v>
       </c>
       <c r="O89" s="3">
         <v>-5700</v>
       </c>
       <c r="P89" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-8400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-2600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-3300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-3400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-2700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,34 +6161,35 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1800</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>-200</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -5976,8 +6197,8 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
@@ -5985,35 +6206,38 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,38 +6381,41 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-14800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-15400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-138900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-71600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -6196,37 +6426,40 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>1000</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-600</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,16 +6779,19 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -6560,55 +6806,58 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>217300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>12600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>28600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>33300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>12000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>3000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>4800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>4000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6622,14 +6871,14 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>4</v>
       </c>
@@ -6645,8 +6894,8 @@
       <c r="N101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -6678,75 +6927,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-19000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-17700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-141700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-76500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>214600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>10000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>22900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>27600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-3800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZOM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZOM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
   <si>
     <t>ZOM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,147 +665,151 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E8" s="3">
         <v>6000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4100</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
+      <c r="N8" s="3">
+        <v>0</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>4</v>
@@ -813,8 +817,8 @@
       <c r="P8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
@@ -843,8 +847,11 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -852,25 +859,25 @@
         <v>2000</v>
       </c>
       <c r="E9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F9" s="3">
         <v>1600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1900</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1200</v>
       </c>
       <c r="H9" s="3">
         <v>1200</v>
       </c>
       <c r="I9" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="J9" s="3">
         <v>1000</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
@@ -878,8 +885,8 @@
       <c r="M9" s="3">
         <v>0</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
+      <c r="N9" s="3">
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
@@ -917,43 +924,46 @@
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E10" s="3">
         <v>4000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3100</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
         <v>0</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
+      <c r="N10" s="3">
+        <v>0</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
@@ -991,8 +1001,11 @@
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1019,8 +1032,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1031,70 +1045,73 @@
         <v>900</v>
       </c>
       <c r="F12" s="3">
+        <v>900</v>
+      </c>
+      <c r="G12" s="3">
         <v>800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>700</v>
-      </c>
-      <c r="K12" s="3">
-        <v>300</v>
       </c>
       <c r="L12" s="3">
         <v>300</v>
       </c>
       <c r="M12" s="3">
+        <v>300</v>
+      </c>
+      <c r="N12" s="3">
         <v>400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>7500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>6600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>2500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>600</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,8 +1184,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1178,11 +1198,11 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
@@ -1190,20 +1210,20 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-500</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1241,8 +1261,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1276,8 +1299,8 @@
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="3">
-        <v>100</v>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O15" s="3">
         <v>100</v>
@@ -1286,7 +1309,7 @@
         <v>100</v>
       </c>
       <c r="Q15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R15" s="3">
         <v>200</v>
@@ -1301,13 +1324,13 @@
         <v>200</v>
       </c>
       <c r="V15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W15" s="3">
         <v>100</v>
       </c>
       <c r="X15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y15" s="3">
         <v>0</v>
@@ -1315,8 +1338,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,156 +1366,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E17" s="3">
         <v>12800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>13000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>11700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-6800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-7500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3900</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="3">
         <v>-2300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-11700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-8400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-4100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-2200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,31 +1549,32 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E20" s="3">
         <v>1500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
@@ -1549,23 +1583,23 @@
         <v>100</v>
       </c>
       <c r="M20" s="3">
+        <v>100</v>
+      </c>
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1579,93 +1613,99 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-4800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-4500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-4800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-4800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-6200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-4600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3900</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>-2300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-11500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-8400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-4100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1676,10 +1716,10 @@
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>4</v>
@@ -1687,8 +1727,8 @@
       <c r="I22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1723,8 +1763,8 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>4</v>
+      <c r="V22" s="3">
+        <v>0</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>4</v>
@@ -1738,109 +1778,115 @@
       <c r="Z22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3900</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-5700</v>
       </c>
       <c r="H23" s="3">
         <v>-5700</v>
       </c>
       <c r="I23" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="J23" s="3">
         <v>-4200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-11700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-8400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-4100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-2200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-2300</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1886,8 +1932,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2009,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-11700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-8400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-4100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-2200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-11700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-8400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-4100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-2200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2240,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2256,8 +2317,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2394,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,31 +2471,34 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
@@ -2437,23 +2507,23 @@
         <v>-100</v>
       </c>
       <c r="M32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2467,93 +2537,99 @@
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>100</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-11700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-8400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-4100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-2200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2702,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-11700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-8400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-4100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-2200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2892,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,100 +2921,104 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E41" s="3">
         <v>28000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>27400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>45100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>186800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>192300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>195000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>271400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>276200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>276600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>62000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>52000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>29100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>84400</v>
+      </c>
+      <c r="E42" s="3">
         <v>102500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>112700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>87700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>74200</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2944,8 +3034,8 @@
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2983,52 +3073,55 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E43" s="3">
         <v>2000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>700</v>
-      </c>
-      <c r="I43" s="3">
-        <v>800</v>
       </c>
       <c r="J43" s="3">
         <v>800</v>
       </c>
       <c r="K43" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="L43" s="3">
         <v>300</v>
       </c>
       <c r="M43" s="3">
+        <v>300</v>
+      </c>
+      <c r="N43" s="3">
         <v>200</v>
-      </c>
-      <c r="N43" s="3">
-        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>100</v>
       </c>
       <c r="P43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
         <v>200</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>100</v>
       </c>
       <c r="R43" s="3">
         <v>100</v>
@@ -3046,55 +3139,58 @@
         <v>100</v>
       </c>
       <c r="W43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X43" s="3">
         <v>0</v>
       </c>
       <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
         <v>100</v>
       </c>
-      <c r="Z43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E44" s="3">
         <v>3600</v>
-      </c>
-      <c r="E44" s="3">
-        <v>2700</v>
       </c>
       <c r="F44" s="3">
         <v>2700</v>
       </c>
       <c r="G44" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H44" s="3">
         <v>2400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>300</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3110,8 +3206,8 @@
       <c r="S44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T44" s="3">
-        <v>0</v>
+      <c r="T44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U44" s="3">
         <v>0</v>
@@ -3131,177 +3227,186 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E45" s="3">
         <v>3600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1100</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>800</v>
       </c>
       <c r="Z45" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>115400</v>
+      </c>
+      <c r="E46" s="3">
         <v>139600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>130200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>123500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>127100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>194600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>198500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>200400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>274700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>277500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>278500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>62900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>53100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>30100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E47" s="3">
         <v>11900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>26400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>40700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>39200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1000</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3317,8 +3422,8 @@
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -3353,123 +3458,129 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E48" s="3">
         <v>10800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>10200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>9200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>130700</v>
+      </c>
+      <c r="E49" s="3">
         <v>112100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>112400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>105800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>107000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>75400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>75700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>76800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>300</v>
-      </c>
-      <c r="N49" s="3">
-        <v>400</v>
       </c>
       <c r="O49" s="3">
         <v>400</v>
       </c>
       <c r="P49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q49" s="3">
         <v>500</v>
@@ -3481,7 +3592,7 @@
         <v>500</v>
       </c>
       <c r="T49" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="U49" s="3">
         <v>0</v>
@@ -3501,8 +3612,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3689,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,55 +3766,58 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="E52" s="3">
         <v>400</v>
       </c>
       <c r="F52" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G52" s="3">
         <v>500</v>
       </c>
       <c r="H52" s="3">
+        <v>500</v>
+      </c>
+      <c r="I52" s="3">
         <v>600</v>
-      </c>
-      <c r="I52" s="3">
-        <v>700</v>
       </c>
       <c r="J52" s="3">
         <v>700</v>
       </c>
       <c r="K52" s="3">
+        <v>700</v>
+      </c>
+      <c r="L52" s="3">
         <v>200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1100</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
       <c r="N52" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="O52" s="3">
         <v>1000</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
+      <c r="P52" s="3">
+        <v>1000</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -3709,22 +3829,25 @@
         <v>0</v>
       </c>
       <c r="V52" s="3">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="W52" s="3">
         <v>1400</v>
       </c>
       <c r="X52" s="3">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="Y52" s="3">
         <v>500</v>
       </c>
       <c r="Z52" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA52" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,82 +3920,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>275100</v>
+      </c>
+      <c r="E54" s="3">
         <v>274800</v>
-      </c>
-      <c r="E54" s="3">
-        <v>279600</v>
       </c>
       <c r="F54" s="3">
         <v>279600</v>
       </c>
       <c r="G54" s="3">
+        <v>279600</v>
+      </c>
+      <c r="H54" s="3">
         <v>282300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>275500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>278000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>280400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>277500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>280400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>280500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>66100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>56600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>32800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>6400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4028,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,87 +4057,91 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E57" s="3">
         <v>6100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>7800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E58" s="3">
         <v>600</v>
@@ -4019,10 +4153,10 @@
         <v>600</v>
       </c>
       <c r="H58" s="3">
+        <v>600</v>
+      </c>
+      <c r="I58" s="3">
         <v>500</v>
-      </c>
-      <c r="I58" s="3">
-        <v>400</v>
       </c>
       <c r="J58" s="3">
         <v>400</v>
@@ -4031,10 +4165,10 @@
         <v>400</v>
       </c>
       <c r="L58" s="3">
+        <v>400</v>
+      </c>
+      <c r="M58" s="3">
         <v>300</v>
-      </c>
-      <c r="M58" s="3">
-        <v>800</v>
       </c>
       <c r="N58" s="3">
         <v>800</v>
@@ -4046,11 +4180,11 @@
         <v>800</v>
       </c>
       <c r="Q58" s="3">
+        <v>800</v>
+      </c>
+      <c r="R58" s="3">
         <v>200</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4066,8 +4200,8 @@
       <c r="W58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X58" s="3">
-        <v>0</v>
+      <c r="X58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y58" s="3">
         <v>0</v>
@@ -4075,35 +4209,38 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
         <v>400</v>
-      </c>
-      <c r="E59" s="3">
-        <v>500</v>
       </c>
       <c r="F59" s="3">
         <v>500</v>
       </c>
       <c r="G59" s="3">
+        <v>500</v>
+      </c>
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>700</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
@@ -4119,8 +4256,8 @@
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -4149,130 +4286,136 @@
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E60" s="3">
         <v>7200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3400</v>
-      </c>
-      <c r="M60" s="3">
-        <v>2000</v>
       </c>
       <c r="N60" s="3">
         <v>2000</v>
       </c>
       <c r="O60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P60" s="3">
         <v>2100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E61" s="3">
         <v>800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>900</v>
-      </c>
-      <c r="F61" s="3">
-        <v>1100</v>
       </c>
       <c r="G61" s="3">
         <v>1100</v>
       </c>
       <c r="H61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I61" s="3">
         <v>1200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1100</v>
-      </c>
-      <c r="O61" s="3">
-        <v>1200</v>
       </c>
       <c r="P61" s="3">
         <v>1200</v>
       </c>
       <c r="Q61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R61" s="3">
         <v>1300</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -4297,35 +4440,38 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E62" s="3">
         <v>7300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4200</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4341,8 +4487,8 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -4371,8 +4517,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4594,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4671,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,82 +4748,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E66" s="3">
         <v>15300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>16500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3100</v>
-      </c>
-      <c r="O66" s="3">
-        <v>3200</v>
       </c>
       <c r="P66" s="3">
         <v>3200</v>
       </c>
       <c r="Q66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="R66" s="3">
         <v>3100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4856,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4931,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5008,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4879,7 +5047,7 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="O70" s="3">
         <v>12000</v>
@@ -4900,7 +5068,7 @@
         <v>12000</v>
       </c>
       <c r="U70" s="3">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="V70" s="3">
         <v>0</v>
@@ -4917,8 +5085,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,82 +5162,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-148500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-148000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-142800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-136400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-133600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-128600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-123300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-119400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-116100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-109800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-105000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-68500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-64800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-59800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-54500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-52100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-49200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-46400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-44000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-28000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-23900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-21900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-17800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-15600</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5316,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5393,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,82 +5470,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>260900</v>
+      </c>
+      <c r="E76" s="3">
         <v>259500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>263100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>267400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>268800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>266200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>269000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>270900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>271600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>276100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>277500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>51100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>41400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>17600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-10000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-9900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-6900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-4300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>4700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5624,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-11700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-8400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-4100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-2200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,25 +5814,26 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E83" s="3">
         <v>1500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1400</v>
-      </c>
-      <c r="F83" s="3">
-        <v>1200</v>
       </c>
       <c r="G83" s="3">
         <v>1200</v>
       </c>
       <c r="H83" s="3">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="I83" s="3">
         <v>800</v>
@@ -5643,7 +5842,7 @@
         <v>800</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
@@ -5661,7 +5860,7 @@
         <v>100</v>
       </c>
       <c r="Q83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R83" s="3">
         <v>200</v>
@@ -5676,13 +5875,13 @@
         <v>200</v>
       </c>
       <c r="V83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W83" s="3">
         <v>100</v>
       </c>
       <c r="X83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y83" s="3">
         <v>0</v>
@@ -5690,8 +5889,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5966,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6043,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6120,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6197,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,82 +6274,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2700</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-5700</v>
       </c>
       <c r="P89" s="3">
         <v>-5700</v>
       </c>
       <c r="Q89" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="R89" s="3">
         <v>-2200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-8400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-2600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-3300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-3400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,37 +6382,38 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1800</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>-200</v>
       </c>
       <c r="L91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -6200,8 +6421,8 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
@@ -6209,35 +6430,38 @@
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-100</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6534,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,41 +6611,44 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E94" s="3">
         <v>23300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-14800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-15400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-138900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-71600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -6429,37 +6659,40 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>1000</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-600</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-100</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6719,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +6794,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6871,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6948,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,8 +7025,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6793,8 +7039,8 @@
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -6809,55 +7055,58 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>217300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>12600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>28600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>33300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>12000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>3000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>4800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>4000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6874,14 +7123,14 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>4</v>
       </c>
@@ -6897,8 +7146,8 @@
       <c r="O101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="P101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
@@ -6930,78 +7179,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E102" s="3">
         <v>19600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-19000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-17700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-141700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-76500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>214600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>10000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>22900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>27600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>3500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-3800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1100</v>
       </c>
     </row>
